--- a/data/trans_dic/P25_11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_11-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos depresivos</t>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,74%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,12%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>9,17%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,75%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>5,24%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,4</t>
+          <t>0,65; 5,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,27</t>
+          <t>0,66; 11,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,44</t>
+          <t>0,8; 10,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,47</t>
+          <t>4,89; 16,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,34</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 8,84</t>
+          <t>0,92; 9,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,88</t>
+          <t>0,7; 6,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,5</t>
+          <t>2,45; 8,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,71</t>
+          <t>1,67; 7,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,77</t>
+          <t>4,26; 16,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,1</t>
+          <t>4,97; 15,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,85</t>
+          <t>3,63; 12,27</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 4,77</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 8,56</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 7,54</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 13,87</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 8,84</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 8,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>8,15%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>7,83%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>8,0%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,23</t>
+          <t>2,86; 10,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,31</t>
+          <t>0,96; 5,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,36</t>
+          <t>2,05; 16,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 14,52</t>
+          <t>2,12; 8,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,36</t>
+          <t>3,92; 14,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,75</t>
+          <t>2,99; 12,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,2</t>
+          <t>1,23; 7,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,6</t>
+          <t>2,32; 7,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,05</t>
+          <t>1,98; 9,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,65</t>
+          <t>7,01; 16,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,48</t>
+          <t>4,11; 13,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 11,88</t>
+          <t>6,21; 15,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 7,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 5,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 10,46</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 10,91</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 12,01</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 11,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,55%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>12,85%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,84%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>14,7%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>9,0%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 10,1</t>
+          <t>3,1; 10,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,57</t>
+          <t>0,82; 4,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,02</t>
+          <t>1,09; 12,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,94</t>
+          <t>2,73; 9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 16,71</t>
+          <t>2,98; 9,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 12,3</t>
+          <t>6,16; 14,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,52</t>
+          <t>6,28; 13,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 17,18</t>
+          <t>7,0; 13,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,84</t>
+          <t>5,98; 11,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,71</t>
+          <t>8,17; 15,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,63</t>
+          <t>8,96; 17,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,79</t>
+          <t>10,6; 20,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 10,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 8,02</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 10,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 10,96</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 12,02</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 15,45</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1305,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,52 +1315,82 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,53%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,94%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>18,39%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,44%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>11,06%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11,29%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>12,14%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,61</t>
+          <t>3,81; 11,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,48</t>
+          <t>4,67; 10,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,86</t>
+          <t>4,8; 10,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,79</t>
+          <t>5,7; 12,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,28</t>
+          <t>3,59; 10,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 17,54</t>
+          <t>5,8; 13,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,02; 19,42</t>
+          <t>9,95; 17,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 23,19</t>
+          <t>10,05; 17,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,34</t>
+          <t>11,86; 19,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 13,17</t>
+          <t>13,99; 22,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 13,48</t>
+          <t>13,74; 23,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 15,34</t>
+          <t>11,36; 20,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 12,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>8,19; 13,05</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>8,99; 13,67</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 16,27</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 15,76</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 15,06</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>12,24%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14,8%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>21,43%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>10,99%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>11,31%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>23,46%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,2%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>17,05%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,22</t>
+          <t>2,75; 9,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,63</t>
+          <t>2,69; 8,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 9,06</t>
+          <t>3,35; 8,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 17,72</t>
+          <t>5,75; 13,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 21,48</t>
+          <t>7,84; 17,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,09</t>
+          <t>13,52; 25,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 21,55</t>
+          <t>10,14; 19,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 26,67</t>
+          <t>13,4; 23,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,73</t>
+          <t>12,49; 21,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,11</t>
+          <t>16,26; 28,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,12</t>
+          <t>16,12; 27,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,4; 20,72</t>
+          <t>18,3; 29,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 12,84</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>8,9; 14,4</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 14,22</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 20,2</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 21,18</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,34; 25,59</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>30,5%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,26; 17,04</t>
+          <t>4,97; 18,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 24,98</t>
+          <t>7,19; 21,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,77</t>
+          <t>2,85; 11,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,6</t>
+          <t>3,57; 13,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,83</t>
+          <t>1,01; 6,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,49; 21,22</t>
+          <t>2,07; 8,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 24,48</t>
+          <t>10,65; 22,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 30,15</t>
+          <t>11,85; 21,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,61</t>
+          <t>14,21; 26,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 20,42</t>
+          <t>11,53; 23,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 17,24</t>
+          <t>14,42; 29,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,2</t>
+          <t>23,75; 38,69</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9,53; 18,11</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 19,67</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 18,75</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>8,91; 17,37</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 18,31</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 25,2</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>6,24%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>10,47%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>15,68%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,49</t>
+          <t>4,43; 7,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,14</t>
+          <t>4,18; 7,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,11</t>
+          <t>3,82; 7,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,86</t>
+          <t>5,5; 8,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,25</t>
+          <t>4,84; 8,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,78</t>
+          <t>7,01; 10,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 13,2</t>
+          <t>8,73; 12,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 18,21</t>
+          <t>9,81; 12,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 9,33</t>
+          <t>10,21; 13,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 9,5</t>
+          <t>12,6; 16,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,26; 9,52</t>
+          <t>13,55; 18,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 12,44</t>
+          <t>15,49; 20,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 9,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 9,69</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 9,92</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>9,8; 12,52</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 12,47</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 14,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos depresivos (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10769</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18290</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17573</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43646</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1609</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12512</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27246</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20416</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40863</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3430</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2654</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23281</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>45537</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>37990</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>84509</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3283; 27499</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3447; 60007</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4056; 53009</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23028; 79941</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2371</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>404; 4162</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3246; 29995</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12613; 45865</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8571; 40763</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20309; 76754</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1859; 5847</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1400; 4729</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9963; 46157</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25703; 88934</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19410; 77255</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>54419; 131538</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2320; 7022</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2396; 7288</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33731</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14251</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33138</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26902</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17706</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23554</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21788</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54918</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>51437</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>37805</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>54927</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>81821</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7764</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7762</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16385; 58884</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5426; 30881</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12163; 98321</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12260; 50726</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1954; 7203</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1465; 6203</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6336; 39393</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11779; 40455</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10222; 46717</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>35410; 82175</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1942; 6162</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2858; 7260</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>28940; 77415</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21430; 58390</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>29958; 116300</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>54187; 118075</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4879; 11662</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4924; 10900</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39346</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14476</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26800</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34851</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3340</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66369</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68766</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61788</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81013</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6929</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8064</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>105715</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>83242</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>88588</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>115864</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10269</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>13963</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21167; 72307</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5563; 31158</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7418; 87434</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18509; 62506</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1794; 5523</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3724; 8871</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44716; 93577</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50281; 95158</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42698; 83221</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58410; 110585</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4829; 9232</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5814; 11216</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>75263; 144990</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>61042; 112282</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>62439; 141292</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>85610; 152764</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7474; 13720</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>10653; 17807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>41472</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46638</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44459</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56270</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3807</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5041</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>91906</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>91469</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101736</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>117679</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9602</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8094</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>133379</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>138107</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>146195</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>173949</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>13409</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13135</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24652; 73981</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30184; 67712</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30492; 66230</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37387; 83137</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2093; 6267</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3251; 7563</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68003; 120541</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67671; 117519</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78294; 128803</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92307; 148520</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7174; 12193</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6031; 10744</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>102685; 171753</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>108064; 172143</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>116466; 176964</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>138327; 214089</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>10502; 17413</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>10014; 16435</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>25425</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24351</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28485</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44150</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8618</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>71573</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>88221</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>85013</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>116326</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10451</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10991</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>96998</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>112572</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>113499</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>160476</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>15898</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19609</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13599; 47280</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13541; 40630</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16549; 44250</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28290; 67626</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3489; 7823</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6098; 11346</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51152; 98929</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>67203; 115545</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>64117; 111699</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>84038; 148749</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7861; 13377</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8575; 13851</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>70745; 128402</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>89508; 144765</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>89294; 143151</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>123405; 203898</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>12500; 19748</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>15947; 23534</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>49185</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>67545</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29886</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>41025</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>110133</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>111850</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>134743</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>120993</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13358</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19418</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>159318</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>179395</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>164629</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>162018</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>14779</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>21461</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>27111; 100817</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>38058; 112407</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15168; 59075</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>20116; 75017</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>473; 3133</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>947; 3966</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>75494; 157276</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>82103; 148306</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>98009; 183914</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>83516; 171756</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>9124; 18461</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>15123; 24632</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>119455; 227054</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>132091; 240313</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>123791; 229119</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>114718; 223682</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9913; 20158</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>16998; 27603</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>199928</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>185552</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>180342</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>246844</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18815</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>26450</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>370198</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>411106</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>425485</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>531793</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>47466</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>53743</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>570126</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>596657</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>605827</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>778637</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>66281</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>80192</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>152565; 264585</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>143909; 253055</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>131548; 248714</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>188977; 304610</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14603; 24198</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>21069; 32449</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>313690; 439518</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>354130; 467910</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>368537; 500568</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>453276; 607345</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>41015; 54982</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46935; 61563</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>489687; 656801</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>525963; 683397</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>526333; 700052</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>689708; 881240</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>58670; 75362</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>71415; 89140</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
